--- a/artfynd/A 2937-2023.xlsx
+++ b/artfynd/A 2937-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,6 +910,345 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112128524</v>
+      </c>
+      <c r="B4" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Godmyr (Godmyr), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>690280.6233055658</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7126404.088587272</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112127587</v>
+      </c>
+      <c r="B5" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>690447.4141232002</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7125628.52413491</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>14:27</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>112127546</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>690408.1690133474</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7125570.209357738</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Lycksele</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Lycksele lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Örträsk</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-16</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Ulrika Karlsson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 2937-2023.xlsx
+++ b/artfynd/A 2937-2023.xlsx
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>690280.6233055658</v>
+        <v>690281</v>
       </c>
       <c r="R4" t="n">
-        <v>7126404.088587272</v>
+        <v>7126404</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112127587</v>
+        <v>112127546</v>
       </c>
       <c r="B5" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690447.4141232002</v>
+        <v>690408</v>
       </c>
       <c r="R5" t="n">
-        <v>7125628.52413491</v>
+        <v>7125570</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112127546</v>
+        <v>112127587</v>
       </c>
       <c r="B6" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690408.1690133474</v>
+        <v>690447</v>
       </c>
       <c r="R6" t="n">
-        <v>7125570.209357738</v>
+        <v>7125629</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 2937-2023.xlsx
+++ b/artfynd/A 2937-2023.xlsx
@@ -915,7 +915,7 @@
         <v>112128524</v>
       </c>
       <c r="B4" t="n">
-        <v>90666</v>
+        <v>90800</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112127546</v>
+        <v>112127587</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>90794</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690408</v>
+        <v>690447</v>
       </c>
       <c r="R5" t="n">
-        <v>7125570</v>
+        <v>7125629</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112127587</v>
+        <v>112127546</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>90792</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,21 +1154,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690447</v>
+        <v>690408</v>
       </c>
       <c r="R6" t="n">
-        <v>7125629</v>
+        <v>7125570</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 2937-2023.xlsx
+++ b/artfynd/A 2937-2023.xlsx
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112128524</v>
+        <v>112127587</v>
       </c>
       <c r="B4" t="n">
-        <v>90800</v>
+        <v>90808</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,39 +924,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>690281</v>
+        <v>690447</v>
       </c>
       <c r="R4" t="n">
-        <v>7126404</v>
+        <v>7125629</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -988,7 +988,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:27</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112127587</v>
+        <v>112128524</v>
       </c>
       <c r="B5" t="n">
-        <v>90794</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,39 +1037,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690447</v>
+        <v>690281</v>
       </c>
       <c r="R5" t="n">
-        <v>7125629</v>
+        <v>7126404</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:27</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1141,7 +1141,7 @@
         <v>112127546</v>
       </c>
       <c r="B6" t="n">
-        <v>90792</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>

--- a/artfynd/A 2937-2023.xlsx
+++ b/artfynd/A 2937-2023.xlsx
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112128524</v>
+        <v>112127546</v>
       </c>
       <c r="B5" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,39 +1037,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690281</v>
+        <v>690408</v>
       </c>
       <c r="R5" t="n">
-        <v>7126404</v>
+        <v>7125570</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112127546</v>
+        <v>112128524</v>
       </c>
       <c r="B6" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,39 +1150,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690408</v>
+        <v>690281</v>
       </c>
       <c r="R6" t="n">
-        <v>7125570</v>
+        <v>7126404</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 2937-2023.xlsx
+++ b/artfynd/A 2937-2023.xlsx
@@ -1025,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112127546</v>
+        <v>112128524</v>
       </c>
       <c r="B5" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,39 +1037,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
+          <t>Godmyr (Godmyr), Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>690408</v>
+        <v>690281</v>
       </c>
       <c r="R5" t="n">
-        <v>7125570</v>
+        <v>7126404</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:25</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112128524</v>
+        <v>112127546</v>
       </c>
       <c r="B6" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,39 +1150,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Godmyr (Godmyr), Ly lm</t>
+          <t>Svarvarmyran (Svarvarmyran), Ly lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>690281</v>
+        <v>690408</v>
       </c>
       <c r="R6" t="n">
-        <v>7126404</v>
+        <v>7125570</v>
       </c>
       <c r="S6" t="n">
         <v>1</v>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:25</t>
         </is>
       </c>
       <c r="AD6" t="b">
